--- a/data/case1/5/P_device_6.xlsx
+++ b/data/case1/5/P_device_6.xlsx
@@ -62,42 +62,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.024842508643438229</v>
+        <v>-0.024400448523445195</v>
       </c>
       <c r="B1" s="0">
-        <v>0.024842507373794197</v>
+        <v>0.02440044724719816</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.041019202112737567</v>
+        <v>0.040752197739348003</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.041019203385622739</v>
+        <v>-0.040752199019100065</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.07486486935171649</v>
+        <v>-0.074788870613140587</v>
       </c>
       <c r="B3" s="0">
-        <v>0.074864868148829353</v>
+        <v>0.074788869404437186</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.073261860169610712</v>
+        <v>0.073145613792079914</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.073261861402720591</v>
+        <v>-0.073145615030984809</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.012066393119085528</v>
+        <v>0.012033269893896449</v>
       </c>
       <c r="B5" s="0">
-        <v>-0.012066394376836924</v>
+        <v>-0.012033271157890714</v>
       </c>
     </row>
   </sheetData>
